--- a/project_4/planning_documentation.xlsx
+++ b/project_4/planning_documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertblue-my.sharepoint.com/personal/jiasheng_ng_teale_com_sg/Documents/Desktop/General Assembly/DSIF4-MASTER - WORKAREA/PROJECT/project_4/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwokweihao/Desktop/General-Assembly-Projects/project_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670ED233-C1C9-48E4-AC1F-8D2AD876C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA9F4B3-E2F8-1849-A9E0-F336D766F2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Components</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>Cost-benefit analysis</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -152,6 +155,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,20 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -455,94 +464,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C2:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_4/planning_documentation.xlsx
+++ b/project_4/planning_documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertblue-my.sharepoint.com/personal/jiasheng_ng_teale_com_sg/Documents/Desktop/General Assembly/DSIF4-MASTER - WORKAREA/PROJECT/project_4/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertblue-my.sharepoint.com/personal/jiasheng_ng_teale_com_sg/Documents/Desktop/General Assembly/DSIF4-MASTER - WORKAREA/PROJECT/project_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670ED233-C1C9-48E4-AC1F-8D2AD876C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A7FD9B-4367-4872-BC8C-4504016B6459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -152,6 +149,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,106 +436,106 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/project_4/planning_documentation.xlsx
+++ b/project_4/planning_documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertblue-my.sharepoint.com/personal/jiasheng_ng_teale_com_sg/Documents/Desktop/General Assembly/DSIF4-MASTER - WORKAREA/PROJECT/project_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{874B32DF-98B5-4B05-88D2-0981DE4CE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{874B32DF-98B5-4B05-88D2-0981DE4CE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75E790B-9F52-4CBB-B5F3-A82149967C10}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Components</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Presentation</t>
-  </si>
-  <si>
-    <t>Cost-benefit analysis</t>
   </si>
 </sst>
 </file>
@@ -140,12 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -155,9 +149,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -457,110 +448,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8"/>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
+      <c r="A10" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="C2:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_4/planning_documentation.xlsx
+++ b/project_4/planning_documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vertblue-my.sharepoint.com/personal/jiasheng_ng_teale_com_sg/Documents/Desktop/General Assembly/DSIF4-MASTER - WORKAREA/PROJECT/project_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwokweihao/Desktop/General-Assembly-Projects/project_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{874B32DF-98B5-4B05-88D2-0981DE4CE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75E790B-9F52-4CBB-B5F3-A82149967C10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A37469-B4DE-1744-9874-ECC8DABFB027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Components</t>
   </si>
@@ -33,18 +33,9 @@
     <t>EDA</t>
   </si>
   <si>
-    <t>graphics</t>
-  </si>
-  <si>
-    <t>slides</t>
-  </si>
-  <si>
     <t>readme</t>
   </si>
   <si>
-    <t>Primary</t>
-  </si>
-  <si>
     <t>Logistic Regression, Random Forest, Decision Tree, K-Nearest Neighbors, Support Vector Machines and Gradient Boosting</t>
   </si>
   <si>
@@ -79,6 +70,21 @@
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>Cost/benefit analysis</t>
+  </si>
+  <si>
+    <t>Jia Sheng</t>
+  </si>
+  <si>
+    <t>Primary Contributor</t>
+  </si>
+  <si>
+    <t>Wei Hao</t>
+  </si>
+  <si>
+    <t>Slides</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,11 +139,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -151,6 +194,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,113 +494,123 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
